--- a/Data/cleaned/data.xlsx
+++ b/Data/cleaned/data.xlsx
@@ -145,10 +145,10 @@
         <v>4.4811972847187072</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.018758327216041169</v>
+        <v>-0.075033308864164677</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="H2" s="0">
         <v>4.5755008353697422</v>
@@ -174,10 +174,10 @@
         <v>1.3355585341660867</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.20258185980404922</v>
+        <v>-0.81032743921619688</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.65000000000000002</v>
+        <v>-2.6000000000000001</v>
       </c>
       <c r="H3" s="0">
         <v>-1.0512489625077877</v>
@@ -203,10 +203,10 @@
         <v>2.2244277140600555</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.38335021210533343</v>
+        <v>-1.5334008484213337</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.67500000000000004</v>
+        <v>-2.7000000000000002</v>
       </c>
       <c r="H4" s="0">
         <v>0.70113953096575476</v>
@@ -232,10 +232,10 @@
         <v>-0.077215997064701003</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.49051093471108731</v>
+        <v>-1.9620437388443492</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.52500000000000002</v>
+        <v>-2.1000000000000001</v>
       </c>
       <c r="H5" s="0">
         <v>-0.35041614155197287</v>
@@ -261,10 +261,10 @@
         <v>-0.69120589154130418</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.49166839795164474</v>
+        <v>-1.966673591806579</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.92500000000000004</v>
+        <v>-3.7000000000000002</v>
       </c>
       <c r="H6" s="0">
         <v>-0.35072338941377029</v>
@@ -290,10 +290,10 @@
         <v>-0.11579732320409841</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.57382596263109298</v>
+        <v>-2.2953038505243719</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.875</v>
+        <v>-3.5</v>
       </c>
       <c r="H7" s="0">
         <v>-1.4059768429777988</v>
@@ -319,10 +319,10 @@
         <v>0.27736597368261756</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.38980196976942655</v>
+        <v>-1.5592078790777062</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.80000000000000004</v>
+        <v>-3.2000000000000002</v>
       </c>
       <c r="H8" s="0">
         <v>0.70360616207184978</v>
@@ -348,10 +348,10 @@
         <v>-0.040464197536377124</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.32185283605897308</v>
+        <v>-1.2874113442358923</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.84999999999999998</v>
+        <v>-3.3999999999999999</v>
       </c>
       <c r="H9" s="0">
         <v>-2.1145423692591794</v>
@@ -377,10 +377,10 @@
         <v>-0.13240105836506963</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.26965574244243895</v>
+        <v>-1.0786229697697558</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="0">
         <v>-1.4159306820496249</v>
@@ -406,10 +406,10 @@
         <v>-0.74711395758274213</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.07023263218766479</v>
+        <v>-0.28093052875065916</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.42499999999999999</v>
+        <v>-1.7</v>
       </c>
       <c r="H11" s="0">
         <v>-2.4900035943377277</v>
@@ -435,10 +435,10 @@
         <v>0.22299813948848599</v>
       </c>
       <c r="F12" s="0">
-        <v>0.063457027914457786</v>
+        <v>0.25382811165783115</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.47499999999999998</v>
+        <v>-1.8999999999999999</v>
       </c>
       <c r="H12" s="0">
         <v>-0.71428590409381298</v>
@@ -464,10 +464,10 @@
         <v>0.23425893631539449</v>
       </c>
       <c r="F13" s="0">
-        <v>0.19873957788557747</v>
+        <v>0.79495831154230989</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.29999999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="H13" s="0">
         <v>-1.4324097670824556</v>
@@ -493,10 +493,10 @@
         <v>-1.1211196565355397</v>
       </c>
       <c r="F14" s="0">
-        <v>0.03059102398363818</v>
+        <v>0.12236409593455272</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.17499999999999999</v>
+        <v>-0.69999999999999996</v>
       </c>
       <c r="H14" s="0">
         <v>-1.7977558351357306</v>
@@ -522,10 +522,10 @@
         <v>-0.40994026525970567</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.18555803663872431</v>
+        <v>-0.74223214655489722</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.42499999999999999</v>
+        <v>-1.7</v>
       </c>
       <c r="H15" s="0">
         <v>-0.72137079966027307</v>
@@ -551,10 +551,10 @@
         <v>-1.8196612898138103</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.49825157895474292</v>
+        <v>-1.9930063158189717</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="H16" s="0">
         <v>-1.084501342150342</v>
@@ -580,10 +580,10 @@
         <v>-0.55114474870541674</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.61171462254466724</v>
+        <v>-2.446858490178669</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.875</v>
+        <v>-3.5</v>
       </c>
       <c r="H17" s="0">
         <v>0.36182725217076583</v>
@@ -609,10 +609,10 @@
         <v>-0.81942272964607499</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.67706016749141384</v>
+        <v>-2.7082406699656554</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.90000000000000002</v>
+        <v>-3.6000000000000001</v>
       </c>
       <c r="H18" s="0">
         <v>-3.2682887228199307</v>
@@ -638,10 +638,10 @@
         <v>-0.35031434377870335</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.67129964348042881</v>
+        <v>-2.6851985739217152</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="H19" s="0">
         <v>-1.0953909173214749</v>
@@ -667,10 +667,10 @@
         <v>-1.2929129185988113</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.53398013287941248</v>
+        <v>-2.1359205315176499</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.72499999999999998</v>
+        <v>-2.8999999999999999</v>
       </c>
       <c r="H20" s="0">
         <v>-0.7319306708304909</v>
@@ -696,10 +696,10 @@
         <v>-0.93117453958072161</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.50149456437773265</v>
+        <v>-2.0059782575109306</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.72499999999999998</v>
+        <v>-2.8999999999999999</v>
       </c>
       <c r="H21" s="0">
         <v>0.36613274867528239</v>
@@ -725,10 +725,10 @@
         <v>-0.96566837665137095</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.46847825953398758</v>
+        <v>-1.8739130381359503</v>
       </c>
       <c r="G22" s="0">
-        <v>-0.77500000000000002</v>
+        <v>-3.1000000000000001</v>
       </c>
       <c r="H22" s="0">
         <v>-4.0460115080446677</v>
@@ -754,10 +754,10 @@
         <v>-0.59664041721141969</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.456713939812119</v>
+        <v>-1.826855759248476</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.67500000000000004</v>
+        <v>-2.7000000000000002</v>
       </c>
       <c r="H23" s="0">
         <v>-1.4814831749937658</v>
@@ -783,10 +783,10 @@
         <v>-0.57111833857008476</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.41060427818725898</v>
+        <v>-1.6424171127490359</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.65000000000000002</v>
+        <v>-2.6000000000000001</v>
       </c>
       <c r="H24" s="0">
         <v>-0.74280429888510846</v>
@@ -812,10 +812,10 @@
         <v>-0.24259484087457533</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.28360150801840434</v>
+        <v>-1.1344060320736173</v>
       </c>
       <c r="G25" s="0">
-        <v>-0.45000000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="H25" s="0">
         <v>-2.610731878673775</v>
@@ -841,10 +841,10 @@
         <v>0.17426668778185816</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.20112642266011613</v>
+        <v>-0.80450569064046451</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.32500000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="H26" s="0">
         <v>-0.37435660196208104</v>
@@ -870,10 +870,10 @@
         <v>0.30384959922602189</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.20403817244730038</v>
+        <v>-0.81615268978920152</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="H27" s="0">
         <v>-1.5009398474201412</v>
@@ -899,10 +899,10 @@
         <v>-0.99104537370342372</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.1268528807176042</v>
+        <v>-0.5074115228704168</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.27500000000000002</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H28" s="0">
         <v>-2.6402736125408546</v>
@@ -928,10 +928,10 @@
         <v>-1.0970434275334668</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.20845792550891379</v>
+        <v>-0.83383170203565515</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="H29" s="0">
         <v>-0.75757598402832838</v>
@@ -957,10 +957,10 @@
         <v>-0.6767943186915667</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.10132999681656331</v>
+        <v>-0.40531998726625323</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.29999999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="H30" s="0">
         <v>-1.1390610450046474</v>
@@ -986,10 +986,10 @@
         <v>-0.10464119610593683</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.089809454079250561</v>
+        <v>-0.35923781631700225</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.14999999999999999</v>
+        <v>-0.59999999999999998</v>
       </c>
       <c r="H31" s="0">
         <v>-0.38040896828163207</v>
@@ -1015,10 +1015,10 @@
         <v>-0.61782816474789926</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.03277716926477011</v>
+        <v>-0.13110867705908044</v>
       </c>
       <c r="G32" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="H32" s="0">
         <v>0.38040896828166143</v>
@@ -1044,10 +1044,10 @@
         <v>0.0059192475646971205</v>
       </c>
       <c r="F33" s="0">
-        <v>0.031083493275905594</v>
+        <v>0.12433397310362237</v>
       </c>
       <c r="G33" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="H33" s="0">
         <v>-2.287899469114826</v>
@@ -1073,10 +1073,10 @@
         <v>-0.57492894856841281</v>
       </c>
       <c r="F34" s="0">
-        <v>0.088656720815214932</v>
+        <v>0.35462688326085973</v>
       </c>
       <c r="G34" s="0">
-        <v>0.074999999999999997</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="H34" s="0">
         <v>-1.9166304039597137</v>
@@ -1102,10 +1102,10 @@
         <v>-0.70842426941349479</v>
       </c>
       <c r="F35" s="0">
-        <v>0.12723602839757781</v>
+        <v>0.50894411359031122</v>
       </c>
       <c r="G35" s="0">
-        <v>0.074999999999999997</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="H35" s="0">
         <v>-1.5399441541765746</v>
@@ -1131,7 +1131,7 @@
         <v>-0.59480069097798804</v>
       </c>
       <c r="F36" s="0">
-        <v>0.19538784423146854</v>
+        <v>0.78155137692587417</v>
       </c>
       <c r="G36" s="0">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>-0.48430032910604764</v>
       </c>
       <c r="F37" s="0">
-        <v>0.31784535528472346</v>
+        <v>1.2713814211388939</v>
       </c>
       <c r="G37" s="0">
-        <v>0.29999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H37" s="0">
         <v>-1.1599814799159041</v>
@@ -1189,10 +1189,10 @@
         <v>-0.17896234886198903</v>
       </c>
       <c r="F38" s="0">
-        <v>0.34798105927751599</v>
+        <v>1.391924237110064</v>
       </c>
       <c r="G38" s="0">
-        <v>0.45000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H38" s="0">
         <v>-0.77519404107147527</v>
@@ -1218,10 +1218,10 @@
         <v>-0.20668535709493924</v>
       </c>
       <c r="F39" s="0">
-        <v>0.39723729752855608</v>
+        <v>1.5889491901142243</v>
       </c>
       <c r="G39" s="0">
-        <v>0.45000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H39" s="0">
         <v>-0.3881611173113621</v>
@@ -1247,10 +1247,10 @@
         <v>-0.34566805543946494</v>
       </c>
       <c r="F40" s="0">
-        <v>0.37424057327773236</v>
+        <v>1.4969622931109294</v>
       </c>
       <c r="G40" s="0">
-        <v>0.29999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>-0.61576589751572897</v>
       </c>
       <c r="F41" s="0">
-        <v>0.45955067622742118</v>
+        <v>1.8382027049096847</v>
       </c>
       <c r="G41" s="0">
-        <v>0.40000000000000002</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="H41" s="0">
         <v>-1.1667485180492982</v>
@@ -1305,10 +1305,10 @@
         <v>0.0023202122270980616</v>
       </c>
       <c r="F42" s="0">
-        <v>0.39064917589000009</v>
+        <v>1.5625967035600004</v>
       </c>
       <c r="G42" s="0">
-        <v>0.47499999999999998</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -1334,10 +1334,10 @@
         <v>-0.23241926741416644</v>
       </c>
       <c r="F43" s="0">
-        <v>0.31160623597926523</v>
+        <v>1.2464249439170609</v>
       </c>
       <c r="G43" s="0">
-        <v>0.34999999999999998</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="H43" s="0">
         <v>-1.9521756659634155</v>
@@ -1363,10 +1363,10 @@
         <v>0.16951759853321707</v>
       </c>
       <c r="F44" s="0">
-        <v>0.06286601547903295</v>
+        <v>0.2514640619161318</v>
       </c>
       <c r="G44" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="H44" s="0">
         <v>-1.568629461272721</v>
@@ -1392,10 +1392,10 @@
         <v>-0.22594914858948845</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.34111207499211149</v>
+        <v>-1.364448299968446</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.59999999999999998</v>
+        <v>-2.3999999999999999</v>
       </c>
       <c r="H45" s="0">
         <v>-0.39312042476323555</v>
@@ -1421,10 +1421,10 @@
         <v>0.18282464100350718</v>
       </c>
       <c r="F46" s="0">
-        <v>-1.317888471902712</v>
+        <v>-5.2715538876108479</v>
       </c>
       <c r="G46" s="0">
-        <v>-1.7749999999999999</v>
+        <v>-7.0999999999999996</v>
       </c>
       <c r="H46" s="0">
         <v>-0.78740182906892364</v>
@@ -1450,10 +1450,10 @@
         <v>0.50339412464383171</v>
       </c>
       <c r="F47" s="0">
-        <v>-1.35537380398342</v>
+        <v>-5.42149521593368</v>
       </c>
       <c r="G47" s="0">
-        <v>-1.325</v>
+        <v>-5.2999999999999998</v>
       </c>
       <c r="H47" s="0">
         <v>-3.1651995029301521</v>
@@ -1479,10 +1479,10 @@
         <v>-0.15255909915797991</v>
       </c>
       <c r="F48" s="0">
-        <v>-1.1404310836102334</v>
+        <v>-4.5617243344409335</v>
       </c>
       <c r="G48" s="0">
-        <v>-1.3500000000000001</v>
+        <v>-5.4000000000000004</v>
       </c>
       <c r="H48" s="0">
         <v>5.1308054239017595</v>
@@ -1508,10 +1508,10 @@
         <v>-1.4754599479367763</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.85073933455152329</v>
+        <v>-3.4029573382060931</v>
       </c>
       <c r="G49" s="0">
-        <v>-1.075</v>
+        <v>-4.2999999999999998</v>
       </c>
       <c r="H49" s="0">
         <v>0.39196475453951485</v>
@@ -1537,10 +1537,10 @@
         <v>-1.0021951050843747</v>
       </c>
       <c r="F50" s="0">
-        <v>-0.56322430588339989</v>
+        <v>-2.2528972235335996</v>
       </c>
       <c r="G50" s="0">
-        <v>-0.84999999999999998</v>
+        <v>-3.3999999999999999</v>
       </c>
       <c r="H50" s="0">
         <v>-3.1465255663928597</v>
@@ -1566,10 +1566,10 @@
         <v>-1.0764868694422005</v>
       </c>
       <c r="F51" s="0">
-        <v>-0.46268054983438706</v>
+        <v>-1.8507221993375482</v>
       </c>
       <c r="G51" s="0">
-        <v>-0.55000000000000004</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="H51" s="0">
         <v>-3.5696815988035113</v>
@@ -1595,10 +1595,10 @@
         <v>-0.76473044434688364</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.2752790922711732</v>
+        <v>-1.1011163690846928</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.14999999999999999</v>
+        <v>-0.59999999999999998</v>
       </c>
       <c r="H52" s="0">
         <v>-2.3976095760842546</v>
@@ -1624,10 +1624,10 @@
         <v>-0.58494404731583571</v>
       </c>
       <c r="F53" s="0">
-        <v>-0.27101373436832149</v>
+        <v>-1.084054937473286</v>
       </c>
       <c r="G53" s="0">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>-2.8764434045013658</v>
       </c>
       <c r="F54" s="0">
-        <v>-0.36446615155866724</v>
+        <v>-1.457864606234669</v>
       </c>
       <c r="G54" s="0">
-        <v>-0.65000000000000002</v>
+        <v>-2.6000000000000001</v>
       </c>
       <c r="H54" s="0">
         <v>-2.0090449065165328</v>
@@ -1682,10 +1682,10 @@
         <v>-2.3091787346578596</v>
       </c>
       <c r="F55" s="0">
-        <v>-0.50757494793934499</v>
+        <v>-2.03029979175738</v>
       </c>
       <c r="G55" s="0">
-        <v>-0.90000000000000002</v>
+        <v>-3.6000000000000001</v>
       </c>
       <c r="H55" s="0">
         <v>-2.8297237770148613</v>
@@ -1711,10 +1711,10 @@
         <v>0.76617442826151605</v>
       </c>
       <c r="F56" s="0">
-        <v>-0.26143862289570352</v>
+        <v>-1.0457544915828141</v>
       </c>
       <c r="G56" s="0">
-        <v>-0.34999999999999998</v>
+        <v>-1.3999999999999999</v>
       </c>
       <c r="H56" s="0">
         <v>-0.81218302015273602</v>
@@ -1740,10 +1740,10 @@
         <v>-1.0000776498013124</v>
       </c>
       <c r="F57" s="0">
-        <v>-0.13446329124075743</v>
+        <v>-0.53785316496302971</v>
       </c>
       <c r="G57" s="0">
-        <v>-0.40000000000000002</v>
+        <v>-1.6000000000000001</v>
       </c>
       <c r="H57" s="0">
         <v>-1.2213749947561818</v>
@@ -1769,10 +1769,10 @@
         <v>-1.2421106631924148</v>
       </c>
       <c r="F58" s="0">
-        <v>-0.07294692373679075</v>
+        <v>-0.291787694947163</v>
       </c>
       <c r="G58" s="0">
-        <v>-0.10000000000000001</v>
+        <v>-0.40000000000000002</v>
       </c>
       <c r="H58" s="0">
         <v>-2.8644623691311364</v>
@@ -1798,10 +1798,10 @@
         <v>-0.37936710838840976</v>
       </c>
       <c r="F59" s="0">
-        <v>-0.17503873699110689</v>
+        <v>-0.70015494796442757</v>
       </c>
       <c r="G59" s="0">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="H59" s="0">
         <v>-1.2339341404841049</v>
@@ -1827,10 +1827,10 @@
         <v>-1.4885534260493449</v>
       </c>
       <c r="F60" s="0">
-        <v>-0.30864079588263837</v>
+        <v>-1.2345631835305535</v>
       </c>
       <c r="G60" s="0">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0.73150419360910623</v>
       </c>
       <c r="F61" s="0">
-        <v>-0.34089552709431781</v>
+        <v>-1.3635821083772712</v>
       </c>
       <c r="G61" s="0">
-        <v>-0.57499999999999996</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -1885,10 +1885,10 @@
         <v>-0.91156641298212948</v>
       </c>
       <c r="F62" s="0">
-        <v>-0.30220006417597201</v>
+        <v>-1.208800256703888</v>
       </c>
       <c r="G62" s="0">
-        <v>-0.27500000000000002</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H62" s="0">
         <v>-2.065053631522777</v>
@@ -1914,10 +1914,10 @@
         <v>-0.90752722125131713</v>
       </c>
       <c r="F63" s="0">
-        <v>-0.21102125128786564</v>
+        <v>-0.84408500515146256</v>
       </c>
       <c r="G63" s="0">
-        <v>-0.10000000000000001</v>
+        <v>-0.40000000000000002</v>
       </c>
       <c r="H63" s="0">
         <v>-0.41429314941279183</v>
@@ -1943,10 +1943,10 @@
         <v>-1.0173693562067758</v>
       </c>
       <c r="F64" s="0">
-        <v>-0.099949706004658537</v>
+        <v>-0.39979882401863415</v>
       </c>
       <c r="G64" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>-0.2307054543104278</v>
       </c>
       <c r="F65" s="0">
-        <v>0.072998993001496523</v>
+        <v>0.29199597200598609</v>
       </c>
       <c r="G65" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="H65" s="0">
         <v>-1.2454602693117434</v>
@@ -2001,10 +2001,10 @@
         <v>0.52923745519217769</v>
       </c>
       <c r="F66" s="0">
-        <v>0.10299149115312559</v>
+        <v>0.41196596461250234</v>
       </c>
       <c r="G66" s="0">
-        <v>0.17499999999999999</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>0.53037891157927786</v>
       </c>
       <c r="F67" s="0">
-        <v>-0.028034650961428362</v>
+        <v>-0.11213860384571345</v>
       </c>
       <c r="G67" s="0">
-        <v>-0.32500000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="H67" s="0">
         <v>0.41558445296761543</v>
@@ -2059,10 +2059,10 @@
         <v>1.1281093914128706</v>
       </c>
       <c r="F68" s="0">
-        <v>-0.064213158171129714</v>
+        <v>-0.25685263268451886</v>
       </c>
       <c r="G68" s="0">
-        <v>-0.34999999999999998</v>
+        <v>-1.3999999999999999</v>
       </c>
       <c r="H68" s="0">
         <v>0.82987581634411878</v>
@@ -2088,10 +2088,10 @@
         <v>0.52229183758717934</v>
       </c>
       <c r="F69" s="0">
-        <v>-0.020701192765419901</v>
+        <v>-0.082804771061679605</v>
       </c>
       <c r="G69" s="0">
-        <v>-0.29999999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="H69" s="0">
         <v>-0.8298758163441422</v>
@@ -2117,10 +2117,10 @@
         <v>6.6447930392277854</v>
       </c>
       <c r="F70" s="0">
-        <v>0.025848792576286493</v>
+        <v>0.10339517030514597</v>
       </c>
       <c r="G70" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="H70" s="0">
         <v>8.6289941016511911</v>
@@ -2146,10 +2146,10 @@
         <v>0.85984341101257</v>
       </c>
       <c r="F71" s="0">
-        <v>-0.091886967482115514</v>
+        <v>-0.36754786992846206</v>
       </c>
       <c r="G71" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="H71" s="0">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0.36807570331504763</v>
       </c>
       <c r="F72" s="0">
-        <v>-0.1000105723328899</v>
+        <v>-0.40004228933155961</v>
       </c>
       <c r="G72" s="0">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0.85581294513596751</v>
       </c>
       <c r="F73" s="0">
-        <v>-0.13346793324996711</v>
+        <v>-0.53387173299986845</v>
       </c>
       <c r="G73" s="0">
-        <v>-0.074999999999999997</v>
+        <v>-0.29999999999999999</v>
       </c>
       <c r="H73" s="0">
         <v>2.8268668892370292</v>
@@ -2233,10 +2233,10 @@
         <v>0.09899096370477696</v>
       </c>
       <c r="F74" s="0">
-        <v>-0.10774047981542809</v>
+        <v>-0.43096191926171235</v>
       </c>
       <c r="G74" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.20000000000000001</v>
       </c>
       <c r="H74" s="0">
         <v>2.4072289302251781</v>
@@ -2262,10 +2262,10 @@
         <v>1.1996640237867391</v>
       </c>
       <c r="F75" s="0">
-        <v>-0.12940705354272639</v>
+        <v>-0.51762821417090554</v>
       </c>
       <c r="G75" s="0">
-        <v>-0.025000000000000001</v>
+        <v>-0.10000000000000001</v>
       </c>
       <c r="H75" s="0">
         <v>0.79920106506922317</v>
@@ -2291,7 +2291,7 @@
         <v>0.71315719128829658</v>
       </c>
       <c r="F76" s="0">
-        <v>-0.052763617380409321</v>
+        <v>-0.21105446952163728</v>
       </c>
       <c r="G76" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0.14646347372957164</v>
       </c>
       <c r="F77" s="0">
-        <v>-0.022541731255550736</v>
+        <v>-0.090166925022202943</v>
       </c>
       <c r="G77" s="0">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0.33397446824087051</v>
       </c>
       <c r="F78" s="0">
-        <v>0.018280545549902785</v>
+        <v>0.073122182199611141</v>
       </c>
       <c r="G78" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="H78" s="0">
         <v>-0.79602016320397007</v>
@@ -2378,10 +2378,10 @@
         <v>-0.39703893615990127</v>
       </c>
       <c r="F79" s="0">
-        <v>0.14003552854311027</v>
+        <v>0.56014211417244109</v>
       </c>
       <c r="G79" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="H79" s="0">
         <v>-0.39860491589563379</v>
@@ -2407,10 +2407,10 @@
         <v>0.24073758253256411</v>
       </c>
       <c r="F80" s="0">
-        <v>0.21601865914160315</v>
+        <v>0.86407463656641259</v>
       </c>
       <c r="G80" s="0">
-        <v>0.375</v>
+        <v>1.5</v>
       </c>
       <c r="H80" s="0">
         <v>0</v>
@@ -2436,10 +2436,10 @@
         <v>-0.80456475382865122</v>
       </c>
       <c r="F81" s="0">
-        <v>0.22802371726553763</v>
+        <v>0.91209486906215054</v>
       </c>
       <c r="G81" s="0">
-        <v>0.375</v>
+        <v>1.5</v>
       </c>
       <c r="H81" s="0">
         <v>-1.1982035919193805</v>
@@ -2465,10 +2465,10 @@
         <v>0.1914736698731512</v>
       </c>
       <c r="F82" s="0">
-        <v>0.32879711580979876</v>
+        <v>1.315188463239195</v>
       </c>
       <c r="G82" s="0">
-        <v>0.375</v>
+        <v>1.5</v>
       </c>
       <c r="H82" s="0">
         <v>1.1982035919193483</v>
@@ -2494,10 +2494,10 @@
         <v>0.36456510927984409</v>
       </c>
       <c r="F83" s="0">
-        <v>0.40372469779059211</v>
+        <v>1.6148987911623685</v>
       </c>
       <c r="G83" s="0">
-        <v>0.42499999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H83" s="0">
         <v>1.1946250790995387</v>
@@ -2523,10 +2523,10 @@
         <v>0.49428323976572425</v>
       </c>
       <c r="F84" s="0">
-        <v>0.36014382284249763</v>
+        <v>1.4405752913699905</v>
       </c>
       <c r="G84" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H84" s="0">
         <v>-0.79602016320397007</v>
@@ -2552,10 +2552,10 @@
         <v>-0.25602757074635901</v>
       </c>
       <c r="F85" s="0">
-        <v>0.45887741361632384</v>
+        <v>1.8355096544652953</v>
       </c>
       <c r="G85" s="0">
-        <v>0.17499999999999999</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="H85" s="0">
         <v>0.796020163203915</v>
@@ -2581,10 +2581,10 @@
         <v>-0.14044453306947072</v>
       </c>
       <c r="F86" s="0">
-        <v>0.39976925930996854</v>
+        <v>1.5990770372398742</v>
       </c>
       <c r="G86" s="0">
-        <v>0.20000000000000001</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="H86" s="0">
         <v>-0.79602016320397007</v>
@@ -2610,10 +2610,10 @@
         <v>0.22008717456487964</v>
       </c>
       <c r="F87" s="0">
-        <v>0.35843905208448001</v>
+        <v>1.4337562083379201</v>
       </c>
       <c r="G87" s="0">
-        <v>0.27500000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H87" s="0">
         <v>-0.39860491589563379</v>
@@ -2639,10 +2639,10 @@
         <v>0.60898092361794876</v>
       </c>
       <c r="F88" s="0">
-        <v>0.34350507729110746</v>
+        <v>1.3740203091644299</v>
       </c>
       <c r="G88" s="0">
-        <v>0.27500000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H88" s="0">
         <v>-0.79840345868597096</v>
@@ -2668,10 +2668,10 @@
         <v>0.28086041101241088</v>
       </c>
       <c r="F89" s="0">
-        <v>0.2238989419861333</v>
+        <v>0.89559576794453322</v>
       </c>
       <c r="G89" s="0">
-        <v>-0.45000000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="H89" s="0">
         <v>2.3904453613366914</v>
@@ -2697,10 +2697,10 @@
         <v>0.52361167177512458</v>
       </c>
       <c r="F90" s="0">
-        <v>0.049604451379048266</v>
+        <v>0.19841780551619306</v>
       </c>
       <c r="G90" s="0">
-        <v>-0.34999999999999998</v>
+        <v>-1.3999999999999999</v>
       </c>
       <c r="H90" s="0">
         <v>0.7936510540186742</v>
@@ -2726,10 +2726,10 @@
         <v>0.029631590369928573</v>
       </c>
       <c r="F91" s="0">
-        <v>-1.0171561065114412</v>
+        <v>-4.0686244260457647</v>
       </c>
       <c r="G91" s="0">
-        <v>-2.2749999999999999</v>
+        <v>-9.0999999999999996</v>
       </c>
       <c r="H91" s="0">
         <v>-0.39662868891806513</v>
@@ -2755,10 +2755,10 @@
         <v>0.98633981197778275</v>
       </c>
       <c r="F92" s="0">
-        <v>-0.72657175091276405</v>
+        <v>-2.9062870036510562</v>
       </c>
       <c r="G92" s="0">
-        <v>-1.0249999999999999</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="H92" s="0">
         <v>2.768177137829503</v>
@@ -2784,10 +2784,10 @@
         <v>0.16771967765622481</v>
       </c>
       <c r="F93" s="0">
-        <v>-0.42206226020036841</v>
+        <v>-1.6882490408014736</v>
       </c>
       <c r="G93" s="0">
-        <v>-0.59999999999999998</v>
+        <v>-2.3999999999999999</v>
       </c>
       <c r="H93" s="0">
         <v>1.1805222538321278</v>
@@ -2813,10 +2813,10 @@
         <v>-0.93063293458524021</v>
       </c>
       <c r="F94" s="0">
-        <v>-0.33662819202334265</v>
+        <v>-1.3465127680933706</v>
       </c>
       <c r="G94" s="0">
-        <v>-0.55000000000000004</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="H94" s="0">
         <v>1.9598275364633919</v>
@@ -2842,10 +2842,10 @@
         <v>-0.98982727939304127</v>
       </c>
       <c r="F95" s="0">
-        <v>-0.38786768880797173</v>
+        <v>-1.5514707552318869</v>
       </c>
       <c r="G95" s="0">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="H95" s="0">
         <v>-1.1747438693238854</v>
@@ -2871,10 +2871,10 @@
         <v>-0.14935599437461228</v>
       </c>
       <c r="F96" s="0">
-        <v>-0.46794857001259887</v>
+        <v>-1.8717942800503955</v>
       </c>
       <c r="G96" s="0">
-        <v>-0.625</v>
+        <v>-2.5</v>
       </c>
       <c r="H96" s="0">
         <v>-1.1782040919027212</v>
@@ -2900,10 +2900,10 @@
         <v>2.1474871078942166</v>
       </c>
       <c r="F97" s="0">
-        <v>-0.39920466124337595</v>
+        <v>-1.5968186449735038</v>
       </c>
       <c r="G97" s="0">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="H97" s="0">
         <v>0.39312042476323111</v>
@@ -2929,10 +2929,10 @@
         <v>-5.6278354923023723</v>
       </c>
       <c r="F98" s="0">
-        <v>-0.27797235814374949</v>
+        <v>-1.1118894325749979</v>
       </c>
       <c r="G98" s="0">
-        <v>-0.55000000000000004</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="H98" s="0">
         <v>0.39273444490274406</v>
@@ -2958,10 +2958,10 @@
         <v>0.013110397412865533</v>
       </c>
       <c r="F99" s="0">
-        <v>-0.17958494625513283</v>
+        <v>-0.71833978502053131</v>
       </c>
       <c r="G99" s="0">
-        <v>-0.32500000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="H99" s="0">
         <v>-0.39273444490272524</v>
@@ -2987,10 +2987,10 @@
         <v>-1.4135209159411359</v>
       </c>
       <c r="F100" s="0">
-        <v>-0.083078134832616585</v>
+        <v>-0.33231253933046634</v>
       </c>
       <c r="G100" s="0">
-        <v>-0.375</v>
+        <v>-1.5</v>
       </c>
       <c r="H100" s="0">
         <v>-1.5748051837358126</v>
@@ -3016,10 +3016,10 @@
         <v>-0.074890804447438467</v>
       </c>
       <c r="F101" s="0">
-        <v>-0.11503530189556203</v>
+        <v>-0.46014120758224814</v>
       </c>
       <c r="G101" s="0">
-        <v>-0.34999999999999998</v>
+        <v>-1.3999999999999999</v>
       </c>
       <c r="H101" s="0">
         <v>2.7518536054148028</v>
@@ -3045,10 +3045,10 @@
         <v>2.1847975962158648</v>
       </c>
       <c r="F102" s="0">
-        <v>-0.11144770199101564</v>
+        <v>-0.44579080796406256</v>
       </c>
       <c r="G102" s="0">
-        <v>-0.10000000000000001</v>
+        <v>-0.40000000000000002</v>
       </c>
       <c r="H102" s="0">
         <v>-1.1770484216789696</v>
@@ -3074,10 +3074,10 @@
         <v>1.8564438550966782</v>
       </c>
       <c r="F103" s="0">
-        <v>-0.038160641152082543</v>
+        <v>-0.15264256460833017</v>
       </c>
       <c r="G103" s="0">
-        <v>0.074999999999999997</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="H103" s="0">
         <v>-1.1805222538321236</v>
@@ -3103,10 +3103,10 @@
         <v>1.8528249545730624</v>
       </c>
       <c r="F104" s="0">
-        <v>-0.091759684867477459</v>
+        <v>-0.36703873946990984</v>
       </c>
       <c r="G104" s="0">
-        <v>-0.14999999999999999</v>
+        <v>-0.59999999999999998</v>
       </c>
       <c r="H104" s="0">
         <v>5.8680758991175352</v>
